--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9F756E37-4011-4B09-9BFC-1DEADD0838BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE6A08A-A538-43FC-AF02-4768C3458B3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="3060" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Organization" sheetId="2" r:id="rId2"/>
     <sheet name="MultipleOrganizations" sheetId="3" r:id="rId3"/>
+    <sheet name="Products" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>TC_ID</t>
   </si>
@@ -134,6 +134,45 @@
   </si>
   <si>
     <t>IndustryName</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>CreateProduct</t>
+  </si>
+  <si>
+    <t>ProdName</t>
+  </si>
+  <si>
+    <t>CreateProductWith</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>Sample_Product</t>
+  </si>
+  <si>
+    <t>Prod_Cat_</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>CRM Applications</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>LexPon Inc.</t>
   </si>
 </sst>
 </file>
@@ -149,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +201,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,13 +216,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +624,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0189A18D-E75B-4237-9E91-ED94635D1604}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,6 +788,116 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F09CF0A-CB84-4F53-8586-12524547BF61}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE6A08A-A538-43FC-AF02-4768C3458B3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EFC69A-645F-4491-A009-F8051D6A3A65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Organization" sheetId="2" r:id="rId2"/>
     <sheet name="MultipleOrganizations" sheetId="3" r:id="rId3"/>
     <sheet name="Products" sheetId="4" r:id="rId4"/>
+    <sheet name="Leads" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>TC_ID</t>
   </si>
@@ -64,9 +65,6 @@
     <t>CreateContactWithOrganization</t>
   </si>
   <si>
-    <t>Qspiders</t>
-  </si>
-  <si>
     <t>TC_004</t>
   </si>
   <si>
@@ -145,34 +143,73 @@
     <t>ProdName</t>
   </si>
   <si>
-    <t>CreateProductWith</t>
-  </si>
-  <si>
     <t>TC_008</t>
   </si>
   <si>
     <t>TC_009</t>
   </si>
   <si>
-    <t>Sample_Product</t>
-  </si>
-  <si>
-    <t>Prod_Cat_</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>CRM Applications</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
     <t>LexPon Inc.</t>
+  </si>
+  <si>
+    <t>CreateProductWithCategory</t>
+  </si>
+  <si>
+    <t>HP245G</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>LenovoT</t>
+  </si>
+  <si>
+    <t>CreateProductWithCategoryAndManufactr</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>BGL</t>
+  </si>
+  <si>
+    <t>CreateLead</t>
+  </si>
+  <si>
+    <t>CreateLeadWithCompany</t>
+  </si>
+  <si>
+    <t>CreateLeadWithCompanyAndLeadSource</t>
+  </si>
+  <si>
+    <t>Lead Source</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>HDFC</t>
   </si>
 </sst>
 </file>
@@ -235,13 +272,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -608,10 +657,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +673,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,13 +697,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,21 +717,21 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,27 +745,27 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +778,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,47 +792,47 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -795,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F09CF0A-CB84-4F53-8586-12524547BF61}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,20 +864,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -841,22 +890,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>46</v>
@@ -871,30 +920,149 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="5" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B47207-AC22-4DFF-B227-97504549B466}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="44" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>49</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
